--- a/everest_modified.xlsx
+++ b/everest_modified.xlsx
@@ -14,7 +14,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="17">
     <font>
       <name val="Arial"/>
@@ -278,7 +280,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -442,6 +444,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -491,6 +496,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -538,17 +546,17 @@
     <xf numFmtId="49" fontId="12" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
@@ -1626,7 +1634,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView showGridLines="0" defaultGridColor="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1643,293 +1651,315 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" s="54">
-      <c r="A1" s="55" t="inlineStr">
+      <c r="A1" s="56" t="inlineStr">
         <is>
           <t>Balaji Surgicals</t>
         </is>
       </c>
-      <c r="B1" s="56" t="n"/>
-      <c r="C1" s="57" t="n"/>
-      <c r="D1" s="58" t="n"/>
-      <c r="E1" s="59" t="n"/>
+      <c r="B1" s="57" t="n"/>
+      <c r="C1" s="58" t="n"/>
+      <c r="D1" s="59" t="n"/>
+      <c r="E1" s="60" t="n"/>
     </row>
     <row r="2" ht="20.25" customHeight="1" s="54">
-      <c r="A2" s="60" t="inlineStr">
+      <c r="A2" s="61" t="inlineStr">
         <is>
           <t>Nawabi Road, Haldwani-263 139</t>
         </is>
       </c>
-      <c r="B2" s="61" t="n"/>
-      <c r="C2" s="62" t="n"/>
-      <c r="D2" s="63" t="inlineStr">
+      <c r="B2" s="62" t="n"/>
+      <c r="C2" s="63" t="n"/>
+      <c r="D2" s="64" t="inlineStr">
         <is>
           <t>Order Form</t>
         </is>
       </c>
-      <c r="E2" s="59" t="n"/>
+      <c r="E2" s="60" t="n"/>
     </row>
     <row r="3" ht="15" customHeight="1" s="54">
-      <c r="A3" s="58" t="n"/>
-      <c r="B3" s="58" t="n"/>
-      <c r="C3" s="57" t="n"/>
-      <c r="D3" s="64" t="n"/>
-      <c r="E3" s="59" t="n"/>
+      <c r="A3" s="59" t="n"/>
+      <c r="B3" s="59" t="n"/>
+      <c r="C3" s="58" t="n"/>
+      <c r="D3" s="65" t="n"/>
+      <c r="E3" s="60" t="n"/>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="54">
-      <c r="A4" s="65" t="inlineStr">
+      <c r="A4" s="66" t="inlineStr">
         <is>
           <t>GSTIN No. 05ADGPA2715B1ZH</t>
         </is>
       </c>
-      <c r="B4" s="58" t="n"/>
-      <c r="C4" s="57" t="n"/>
-      <c r="D4" s="66" t="inlineStr">
+      <c r="B4" s="59" t="n"/>
+      <c r="C4" s="58" t="n"/>
+      <c r="D4" s="67" t="inlineStr">
         <is>
           <t>Ph.:  97193-04441</t>
         </is>
       </c>
-      <c r="E4" s="59" t="n"/>
+      <c r="E4" s="60" t="n"/>
     </row>
     <row r="5" ht="12.75" customHeight="1" s="54">
-      <c r="A5" s="67" t="inlineStr">
+      <c r="A5" s="68" t="inlineStr">
         <is>
           <t>D.L.No. 20B:121663, 21B:121664</t>
         </is>
       </c>
-      <c r="B5" s="58" t="n"/>
-      <c r="C5" s="57" t="n"/>
-      <c r="D5" s="66" t="inlineStr">
+      <c r="B5" s="59" t="n"/>
+      <c r="C5" s="58" t="n"/>
+      <c r="D5" s="67" t="inlineStr">
         <is>
           <t>e-mail : balajisumit@yahoo.co.in</t>
         </is>
       </c>
-      <c r="E5" s="59" t="n"/>
+      <c r="E5" s="60" t="n"/>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="54">
-      <c r="A6" s="68" t="n"/>
-      <c r="B6" s="58" t="n"/>
-      <c r="C6" s="57" t="n"/>
-      <c r="D6" s="69" t="n"/>
-      <c r="E6" s="59" t="n"/>
+      <c r="A6" s="69" t="n"/>
+      <c r="B6" s="59" t="n"/>
+      <c r="C6" s="58" t="n"/>
+      <c r="D6" s="70" t="n"/>
+      <c r="E6" s="60" t="n"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="54">
-      <c r="A7" s="70" t="inlineStr">
+      <c r="A7" s="71" t="inlineStr">
         <is>
           <t>To,</t>
         </is>
       </c>
-      <c r="B7" s="58" t="n"/>
-      <c r="C7" s="71" t="inlineStr">
+      <c r="B7" s="59" t="n"/>
+      <c r="C7" s="72" t="inlineStr">
         <is>
           <t>Date :</t>
         </is>
       </c>
-      <c r="D7" s="72" t="inlineStr">
-        <is>
-          <t>18/09/24</t>
-        </is>
-      </c>
-      <c r="E7" s="59" t="n"/>
+      <c r="D7" s="73" t="n">
+        <v>45593</v>
+      </c>
+      <c r="E7" s="60" t="n"/>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="54">
-      <c r="A8" s="70" t="inlineStr">
+      <c r="A8" s="71" t="inlineStr">
         <is>
           <t>Everest Laboratories</t>
         </is>
       </c>
-      <c r="B8" s="64" t="n"/>
-      <c r="C8" s="71" t="inlineStr">
+      <c r="B8" s="65" t="n"/>
+      <c r="C8" s="72" t="inlineStr">
         <is>
           <t xml:space="preserve">Order No. : </t>
         </is>
       </c>
-      <c r="D8" s="72" t="inlineStr">
+      <c r="D8" s="74" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E8" s="59" t="n"/>
+      <c r="E8" s="60" t="n"/>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="54">
-      <c r="A9" s="70" t="inlineStr">
+      <c r="A9" s="71" t="inlineStr">
         <is>
           <t>Meerut</t>
         </is>
       </c>
-      <c r="B9" s="64" t="n"/>
-      <c r="C9" s="59" t="n"/>
-      <c r="D9" s="73" t="n"/>
-      <c r="E9" s="59" t="n"/>
+      <c r="B9" s="65" t="n"/>
+      <c r="C9" s="60" t="n"/>
+      <c r="D9" s="75" t="n"/>
+      <c r="E9" s="60" t="n"/>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="54">
-      <c r="A10" s="64" t="n"/>
-      <c r="B10" s="74" t="n"/>
-      <c r="C10" s="75" t="n"/>
-      <c r="D10" s="64" t="n"/>
-      <c r="E10" s="59" t="n"/>
+      <c r="A10" s="65" t="n"/>
+      <c r="B10" s="76" t="n"/>
+      <c r="C10" s="77" t="n"/>
+      <c r="D10" s="65" t="n"/>
+      <c r="E10" s="60" t="n"/>
     </row>
     <row r="11" ht="15" customHeight="1" s="54">
-      <c r="A11" s="70" t="inlineStr">
+      <c r="A11" s="71" t="inlineStr">
         <is>
           <t>Dear Sir,</t>
         </is>
       </c>
-      <c r="B11" s="76" t="n"/>
-      <c r="C11" s="59" t="n"/>
-      <c r="D11" s="76" t="n"/>
-      <c r="E11" s="59" t="n"/>
+      <c r="B11" s="78" t="n"/>
+      <c r="C11" s="60" t="n"/>
+      <c r="D11" s="78" t="n"/>
+      <c r="E11" s="60" t="n"/>
     </row>
     <row r="12" ht="15" customHeight="1" s="54">
-      <c r="A12" s="70" t="inlineStr">
+      <c r="A12" s="71" t="inlineStr">
         <is>
           <t>Kindly supply the following items:</t>
         </is>
       </c>
-      <c r="B12" s="77" t="n"/>
-      <c r="C12" s="78" t="n"/>
-      <c r="D12" s="77" t="n"/>
-      <c r="E12" s="59" t="n"/>
+      <c r="B12" s="79" t="n"/>
+      <c r="C12" s="80" t="n"/>
+      <c r="D12" s="79" t="n"/>
+      <c r="E12" s="60" t="n"/>
     </row>
     <row r="13" ht="15" customHeight="1" s="54">
-      <c r="A13" s="76" t="n"/>
-      <c r="B13" s="77" t="n"/>
-      <c r="C13" s="78" t="n"/>
-      <c r="D13" s="77" t="n"/>
-      <c r="E13" s="59" t="n"/>
+      <c r="A13" s="78" t="n"/>
+      <c r="B13" s="79" t="n"/>
+      <c r="C13" s="80" t="n"/>
+      <c r="D13" s="79" t="n"/>
+      <c r="E13" s="60" t="n"/>
     </row>
     <row r="14" ht="15" customHeight="1" s="54">
-      <c r="A14" s="79" t="inlineStr">
+      <c r="A14" s="81" t="inlineStr">
         <is>
           <t>SI.</t>
         </is>
       </c>
-      <c r="B14" s="80" t="inlineStr">
+      <c r="B14" s="82" t="inlineStr">
         <is>
           <t>Item Name</t>
         </is>
       </c>
-      <c r="C14" s="81" t="inlineStr">
+      <c r="C14" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">      Qty.     </t>
         </is>
       </c>
-      <c r="D14" s="80" t="inlineStr">
+      <c r="D14" s="82" t="inlineStr">
         <is>
           <t xml:space="preserve">   Unit</t>
         </is>
       </c>
-      <c r="E14" s="59" t="n"/>
+      <c r="E14" s="60" t="n"/>
     </row>
     <row r="15" ht="15" customHeight="1" s="54">
-      <c r="A15" s="82" t="n"/>
-      <c r="B15" s="83" t="n"/>
-      <c r="C15" s="84" t="n"/>
-      <c r="D15" s="83" t="n"/>
-      <c r="E15" s="59" t="n"/>
+      <c r="A15" s="84" t="n"/>
+      <c r="B15" s="85" t="n"/>
+      <c r="C15" s="86" t="n"/>
+      <c r="D15" s="85" t="n"/>
+      <c r="E15" s="60" t="n"/>
     </row>
     <row r="16" ht="15" customHeight="1" s="54">
-      <c r="A16" s="85" t="n">
+      <c r="A16" s="87" t="n">
         <v>1</v>
       </c>
-      <c r="B16" s="86" t="inlineStr">
+      <c r="B16" s="88" t="inlineStr">
+        <is>
+          <t>Gauze Than , 90cmx 16m</t>
+        </is>
+      </c>
+      <c r="C16" s="89" t="n">
+        <v>100</v>
+      </c>
+      <c r="D16" s="90" t="inlineStr">
+        <is>
+          <t>Bale</t>
+        </is>
+      </c>
+      <c r="E16" s="60" t="inlineStr"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="54">
+      <c r="A17" s="87" t="n"/>
+      <c r="B17" s="91" t="n"/>
+      <c r="C17" s="92" t="n"/>
+      <c r="D17" s="93" t="n"/>
+      <c r="E17" s="60" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="54">
+      <c r="A18" s="87" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" s="88" t="inlineStr">
         <is>
           <t>Ecosoft Crepe Bandage   5cm</t>
         </is>
       </c>
-      <c r="C16" s="87" t="n">
+      <c r="C18" s="92" t="n">
+        <v>100</v>
+      </c>
+      <c r="D18" s="90" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="E18" s="60" t="inlineStr"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="54">
+      <c r="A19" s="87" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" s="88" t="inlineStr">
+        <is>
+          <t>Ecosoft Crepe Bandage   8cm</t>
+        </is>
+      </c>
+      <c r="C19" s="89" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" s="90" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+      <c r="E19" s="60" t="n"/>
+    </row>
+    <row r="20" ht="15" customHeight="1" s="54">
+      <c r="A20" s="87" t="n">
         <v>4</v>
       </c>
-      <c r="D16" s="88" t="inlineStr">
+      <c r="B20" s="88" t="inlineStr">
+        <is>
+          <t>Ecosoft Crepe Bandage 15cm</t>
+        </is>
+      </c>
+      <c r="C20" s="92" t="n">
+        <v>100</v>
+      </c>
+      <c r="D20" s="90" t="inlineStr">
         <is>
           <t>pcs</t>
         </is>
       </c>
-      <c r="E16" s="59" t="inlineStr"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="54">
-      <c r="A17" s="85" t="n">
+      <c r="E20" s="60" t="n"/>
+    </row>
+    <row r="21" ht="15" customHeight="1" s="54">
+      <c r="A21" s="78" t="n"/>
+      <c r="B21" s="91" t="n"/>
+      <c r="C21" s="92" t="n"/>
+      <c r="D21" s="93" t="n"/>
+      <c r="E21" s="60" t="n"/>
+    </row>
+    <row r="22" ht="15" customHeight="1" s="54">
+      <c r="A22" s="87" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" s="88" t="inlineStr">
+        <is>
+          <t>Orthocrepe   8cm</t>
+        </is>
+      </c>
+      <c r="C22" s="92" t="n">
         <v>2</v>
       </c>
-      <c r="B17" s="86" t="inlineStr">
-        <is>
-          <t>Ecosoft Crepe Bandage   8cm</t>
-        </is>
-      </c>
-      <c r="C17" s="89" t="n">
-        <v>5</v>
-      </c>
-      <c r="D17" s="88" t="inlineStr">
+      <c r="D22" s="90" t="inlineStr">
         <is>
           <t>pcs</t>
         </is>
       </c>
-      <c r="E17" s="59" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="54">
-      <c r="A18" s="85" t="n">
-        <v>3</v>
-      </c>
-      <c r="B18" s="86" t="inlineStr">
-        <is>
-          <t>Ecosoft Crepe Bandage 15cm</t>
-        </is>
-      </c>
-      <c r="C18" s="87" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="88" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
-      <c r="E18" s="59" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="54">
-      <c r="A19" s="76" t="n"/>
-      <c r="B19" s="90" t="n"/>
-      <c r="C19" s="87" t="n"/>
-      <c r="D19" s="91" t="n"/>
-      <c r="E19" s="59" t="n"/>
-    </row>
-    <row r="20" ht="15" customHeight="1" s="54">
-      <c r="A20" s="85" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" s="86" t="inlineStr">
-        <is>
-          <t>Orthocrepe   8cm</t>
-        </is>
-      </c>
-      <c r="C20" s="87" t="n">
-        <v>2</v>
-      </c>
-      <c r="D20" s="88" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
-      <c r="E20" s="59" t="n"/>
-    </row>
-    <row r="21" ht="15" customHeight="1" s="54">
-      <c r="A21" s="76" t="n"/>
-      <c r="B21" s="77" t="n"/>
-      <c r="C21" s="92" t="n"/>
-      <c r="D21" s="90" t="n"/>
-      <c r="E21" s="59" t="n"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" s="54">
-      <c r="A22" s="86" t="inlineStr">
+      <c r="E22" s="60" t="n"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" s="54">
+      <c r="A23" s="78" t="n"/>
+      <c r="B23" s="79" t="n"/>
+      <c r="C23" s="94" t="n"/>
+      <c r="D23" s="91" t="n"/>
+      <c r="E23" s="60" t="n"/>
+    </row>
+    <row r="24" ht="15" customHeight="1" s="54">
+      <c r="A24" s="88" t="inlineStr">
         <is>
           <t>Thanking You,</t>
         </is>
       </c>
-      <c r="B22" s="77" t="n"/>
-      <c r="C22" s="92" t="n"/>
-      <c r="D22" s="90" t="n"/>
-      <c r="E22" s="59" t="n"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="54"/>
-    <row r="24" ht="15" customHeight="1" s="54"/>
+      <c r="B24" s="79" t="n"/>
+      <c r="C24" s="94" t="n"/>
+      <c r="D24" s="91" t="n"/>
+      <c r="E24" s="60" t="n"/>
+    </row>
     <row r="25" ht="15" customHeight="1" s="54"/>
     <row r="26" ht="15" customHeight="1" s="54"/>
     <row r="27" ht="15" customHeight="1" s="54"/>
